--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/12oceanbetDataBrokenIMGList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/12oceanbetDataBrokenIMGList.xlsx
@@ -14,25 +14,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>354  Game Provider Name = NucleusGaming   Game Name =  Wild Adventures  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/wanted_dead_or_a_wild.jpg</t>
+    <t>19  Game Provider Name = NetEnt   Game Name =  American Roulette  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/american_roulette_html.jpg</t>
   </si>
   <si>
-    <t>891  Game Provider Name = PlaynGo   Game Name =  Charlie Chance  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/chaos_crew.jpg</t>
+    <t>291  Game Provider Name = NetEnt   Game Name =  Sparks  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/sparks.jpg</t>
   </si>
   <si>
-    <t>1740  Game Provider Name = PlaynGo   Game Name =  IronGirl  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/ironbank_rg.jpg</t>
+    <t>1739  Game Provider Name = RelaxGaming   Game Name =  Iron Bank  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/ironbank_rg.jpg</t>
   </si>
   <si>
-    <t>2138  Game Provider Name = TomHorn   Game Name =  Monkey 27  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/moneytrain2_rg.jpg</t>
+    <t>2133  Game Provider Name = RelaxGaming   Game Name =  Money Train 2  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/moneytrain2_rg.jpg</t>
   </si>
   <si>
-    <t>2705  Game Provider Name = PlaynGo   Game Name =  Snakebite  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/snakearena_rg.jpg</t>
+    <t>2695  Game Provider Name = RelaxGaming   Game Name =  Snake Arena  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/snakearena_rg.jpg</t>
   </si>
   <si>
-    <t>2887  Game Provider Name = PragmaticPlay   Game Name =  Temujin Treasures  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/templetumble_rg.jpg</t>
+    <t>2876  Game Provider Name = RelaxGaming   Game Name =  Temple Tumble Megaways  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/templetumble_rg.jpg</t>
   </si>
   <si>
-    <t>3197  Game Provider Name = QuickSpin   Game Name =  WildChase  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/wildchapo_rg.jpg</t>
+    <t>3178  Game Provider Name = RelaxGaming   Game Name =  Wild Chapo  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/wildchapo_rg.jpg</t>
   </si>
 </sst>
 </file>
